--- a/resources/excel/today.xlsx
+++ b/resources/excel/today.xlsx
@@ -642,11 +642,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -871,6 +874,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col customWidth="1" min="13" max="13" width="13.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -916,13 +920,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -942,7 +946,7 @@
       <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>45691.0</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -957,26 +961,23 @@
       <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>45753.0</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>45753.0</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="1">
+        <v>3.450146593</v>
+      </c>
+      <c r="P2" s="1">
         <v>51.093523</v>
-      </c>
-      <c r="P2" s="1">
-        <v>3.450146593</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>330551.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -995,7 +996,7 @@
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>45691.0</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1010,26 +1011,26 @@
       <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>45753.0</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>45753.0</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O3" s="1">
+        <v>4.782948298</v>
+      </c>
+      <c r="P3" s="1">
         <v>50.85429042</v>
       </c>
-      <c r="P3" s="1">
-        <v>4.782948298</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>330551.0</v>
+      <c r="Q3" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -1063,26 +1064,26 @@
       <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>45753.0</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>45753.0</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="1">
+        <v>3.820289756</v>
+      </c>
+      <c r="P4" s="1">
         <v>50.44881038</v>
       </c>
-      <c r="P4" s="1">
-        <v>3.820289756</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>330551.0</v>
+      <c r="Q4" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -1101,7 +1102,7 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>45691.0</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1116,26 +1117,26 @@
       <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>45753.0</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>45753.0</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="1">
+        <v>4.179658566</v>
+      </c>
+      <c r="P5" s="1">
         <v>51.17463454</v>
       </c>
-      <c r="P5" s="1">
-        <v>4.179658566</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>330551.0</v>
+      <c r="Q5" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -1154,7 +1155,7 @@
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>45691.0</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1169,26 +1170,26 @@
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>45844.0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>45844.0</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="1">
+        <v>2.864178578</v>
+      </c>
+      <c r="P6" s="1">
         <v>51.0321733</v>
       </c>
-      <c r="P6" s="1">
-        <v>2.864178578</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>330551.0</v>
+      <c r="Q6" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -1207,7 +1208,7 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>45691.0</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1222,26 +1223,26 @@
       <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>45844.0</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <v>45844.0</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O7" s="1">
+        <v>4.246168556</v>
+      </c>
+      <c r="P7" s="1">
         <v>50.77904753</v>
       </c>
-      <c r="P7" s="1">
-        <v>4.246168556</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>330551.0</v>
+      <c r="Q7" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1260,7 +1261,7 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>45691.0</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1275,26 +1276,26 @@
       <c r="J8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>45844.0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>45844.0</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="1">
+        <v>4.573370527</v>
+      </c>
+      <c r="P8" s="1">
         <v>51.1292025</v>
       </c>
-      <c r="P8" s="1">
-        <v>4.573370527</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>330551.0</v>
+      <c r="Q8" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1313,7 +1314,7 @@
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>45691.0</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1328,26 +1329,26 @@
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>45844.0</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="5">
         <v>45844.0</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="1">
+        <v>4.333466</v>
+      </c>
+      <c r="P9" s="1">
         <v>50.741808</v>
       </c>
-      <c r="P9" s="1">
-        <v>4.333466</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>330551.0</v>
+      <c r="Q9" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1366,7 +1367,7 @@
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>45691.0</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1381,26 +1382,26 @@
       <c r="J10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>45844.0</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <v>45844.0</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="1">
+        <v>5.163825247</v>
+      </c>
+      <c r="P10" s="1">
         <v>51.1712429</v>
       </c>
-      <c r="P10" s="1">
-        <v>5.163825247</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>330551.0</v>
+      <c r="Q10" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1419,7 +1420,7 @@
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>45691.0</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1434,26 +1435,26 @@
       <c r="J11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <v>45844.0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <v>45844.0</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="1">
+        <v>5.248031598</v>
+      </c>
+      <c r="P11" s="1">
         <v>51.11675443</v>
       </c>
-      <c r="P11" s="1">
-        <v>5.248031598</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>330551.0</v>
+      <c r="Q11" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1472,7 +1473,7 @@
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>45691.0</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1487,26 +1488,26 @@
       <c r="J12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>45844.0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <v>45844.0</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="1">
+        <v>4.833608098</v>
+      </c>
+      <c r="P12" s="1">
         <v>51.17435145</v>
       </c>
-      <c r="P12" s="1">
-        <v>4.833608098</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>330551.0</v>
+      <c r="Q12" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -1525,7 +1526,7 @@
       <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>45691.0</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1540,26 +1541,26 @@
       <c r="J13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>45875.0</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <v>45875.0</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O13" s="1">
+        <v>5.709580122</v>
+      </c>
+      <c r="P13" s="1">
         <v>50.4812778</v>
       </c>
-      <c r="P13" s="1">
-        <v>5.709580122</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>330551.0</v>
+      <c r="Q13" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1578,7 +1579,7 @@
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>45691.0</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1593,26 +1594,26 @@
       <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <v>45967.0</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="5">
         <v>45967.0</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O14" s="1">
+        <v>4.782948298</v>
+      </c>
+      <c r="P14" s="1">
         <v>50.85429042</v>
       </c>
-      <c r="P14" s="1">
-        <v>4.782948298</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>330551.0</v>
+      <c r="Q14" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1631,7 +1632,7 @@
       <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>45691.0</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1646,26 +1647,26 @@
       <c r="J15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <v>45967.0</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O15" s="1">
+        <v>4.695744095</v>
+      </c>
+      <c r="P15" s="1">
         <v>50.56013417</v>
       </c>
-      <c r="P15" s="1">
-        <v>4.695744095</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>330551.0</v>
+      <c r="Q15" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -1684,7 +1685,7 @@
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>45691.0</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1705,20 +1706,20 @@
       <c r="L16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O16" s="1">
+        <v>4.880564785</v>
+      </c>
+      <c r="P16" s="1">
         <v>51.05970564</v>
       </c>
-      <c r="P16" s="1">
-        <v>4.880564785</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>330551.0</v>
+      <c r="Q16" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -1737,7 +1738,7 @@
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>45691.0</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1758,20 +1759,20 @@
       <c r="L17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O17" s="1">
+        <v>2.88520927</v>
+      </c>
+      <c r="P17" s="1">
         <v>50.85617243</v>
       </c>
-      <c r="P17" s="1">
-        <v>2.88520927</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>330551.0</v>
+      <c r="Q17" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -1790,7 +1791,7 @@
       <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>45691.0</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1811,20 +1812,20 @@
       <c r="L18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="1">
+        <v>4.910568298</v>
+      </c>
+      <c r="P18" s="1">
         <v>51.09019137</v>
       </c>
-      <c r="P18" s="1">
-        <v>4.910568298</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>330551.0</v>
+      <c r="Q18" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -1843,7 +1844,7 @@
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>45691.0</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1864,20 +1865,20 @@
       <c r="L19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O19" s="1">
+        <v>3.326597798</v>
+      </c>
+      <c r="P19" s="1">
         <v>51.00141541</v>
       </c>
-      <c r="P19" s="1">
-        <v>3.326597798</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>330551.0</v>
+      <c r="Q19" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -1896,7 +1897,7 @@
       <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>45691.0</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1917,20 +1918,20 @@
       <c r="L20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O20" s="1">
+        <v>3.103453998</v>
+      </c>
+      <c r="P20" s="1">
         <v>51.058136</v>
       </c>
-      <c r="P20" s="1">
-        <v>3.103453998</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>330551.0</v>
+      <c r="Q20" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1949,7 +1950,7 @@
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>45691.0</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1970,20 +1971,20 @@
       <c r="L21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O21" s="1">
+        <v>3.706098</v>
+      </c>
+      <c r="P21" s="1">
         <v>51.108529</v>
       </c>
-      <c r="P21" s="1">
-        <v>3.706098</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>330551.0</v>
+      <c r="Q21" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2002,7 +2003,7 @@
       <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>45691.0</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2023,20 +2024,20 @@
       <c r="L22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O22" s="1">
+        <v>4.538462045</v>
+      </c>
+      <c r="P22" s="1">
         <v>50.88587494</v>
       </c>
-      <c r="P22" s="1">
-        <v>4.538462045</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>330551.0</v>
+      <c r="Q22" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2055,7 +2056,7 @@
       <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>45691.0</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2076,20 +2077,20 @@
       <c r="L23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O23" s="1">
+        <v>4.763945</v>
+      </c>
+      <c r="P23" s="1">
         <v>51.401398</v>
       </c>
-      <c r="P23" s="1">
-        <v>4.763945</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>330551.0</v>
+      <c r="Q23" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2108,7 +2109,7 @@
       <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>45691.0</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2129,20 +2130,20 @@
       <c r="L24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O24" s="1">
+        <v>3.597696</v>
+      </c>
+      <c r="P24" s="1">
         <v>50.959658</v>
       </c>
-      <c r="P24" s="1">
-        <v>3.597696</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>330551.0</v>
+      <c r="Q24" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2161,7 +2162,7 @@
       <c r="E25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>45691.0</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2182,20 +2183,20 @@
       <c r="L25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O25" s="1">
+        <v>3.435727398</v>
+      </c>
+      <c r="P25" s="1">
         <v>50.88452418</v>
       </c>
-      <c r="P25" s="1">
-        <v>3.435727398</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>330551.0</v>
+      <c r="Q25" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2214,7 +2215,7 @@
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>45691.0</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2235,20 +2236,20 @@
       <c r="L26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="1">
+        <v>4.071974778</v>
+      </c>
+      <c r="P26" s="1">
         <v>50.87699223</v>
       </c>
-      <c r="P26" s="1">
-        <v>4.071974778</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>330551.0</v>
+      <c r="Q26" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2267,7 +2268,7 @@
       <c r="E27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>45691.0</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2288,20 +2289,20 @@
       <c r="L27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O27" s="1">
+        <v>3.207324</v>
+      </c>
+      <c r="P27" s="1">
         <v>51.226225</v>
       </c>
-      <c r="P27" s="1">
-        <v>3.207324</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>330551.0</v>
+      <c r="Q27" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2320,7 +2321,7 @@
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>45691.0</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2341,20 +2342,20 @@
       <c r="L28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O28" s="1">
+        <v>4.711434198</v>
+      </c>
+      <c r="P28" s="1">
         <v>50.95063465</v>
       </c>
-      <c r="P28" s="1">
-        <v>4.711434198</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>330551.0</v>
+      <c r="Q28" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -2373,7 +2374,7 @@
       <c r="E29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>45691.0</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2394,20 +2395,20 @@
       <c r="L29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O29" s="1">
+        <v>5.394709356</v>
+      </c>
+      <c r="P29" s="1">
         <v>51.15595943</v>
       </c>
-      <c r="P29" s="1">
-        <v>5.394709356</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>330551.0</v>
+      <c r="Q29" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -2426,7 +2427,7 @@
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>45691.0</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2447,20 +2448,20 @@
       <c r="L30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="1">
+        <v>4.48795873</v>
+      </c>
+      <c r="P30" s="1">
         <v>51.01496814</v>
       </c>
-      <c r="P30" s="1">
-        <v>4.48795873</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>330551.0</v>
+      <c r="Q30" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -2479,7 +2480,7 @@
       <c r="E31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>45691.0</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2500,20 +2501,20 @@
       <c r="L31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O31" s="1">
+        <v>4.409078778</v>
+      </c>
+      <c r="P31" s="1">
         <v>51.19518534</v>
       </c>
-      <c r="P31" s="1">
-        <v>4.409078778</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>330551.0</v>
+      <c r="Q31" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -2532,7 +2533,7 @@
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>45691.0</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2553,20 +2554,20 @@
       <c r="L32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O32" s="1">
+        <v>4.753448862</v>
+      </c>
+      <c r="P32" s="1">
         <v>50.82774218</v>
       </c>
-      <c r="P32" s="1">
-        <v>4.753448862</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>330551.0</v>
+      <c r="Q32" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -2585,7 +2586,7 @@
       <c r="E33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>45691.0</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2606,20 +2607,20 @@
       <c r="L33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O33" s="1">
+        <v>3.02763834</v>
+      </c>
+      <c r="P33" s="1">
         <v>51.13040197</v>
       </c>
-      <c r="P33" s="1">
-        <v>3.02763834</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>330551.0</v>
+      <c r="Q33" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -2638,7 +2639,7 @@
       <c r="E34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>45691.0</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2659,20 +2660,20 @@
       <c r="L34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O34" s="1">
+        <v>4.490546461</v>
+      </c>
+      <c r="P34" s="1">
         <v>50.56395599</v>
       </c>
-      <c r="P34" s="1">
-        <v>4.490546461</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>330551.0</v>
+      <c r="Q34" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -2691,7 +2692,7 @@
       <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>45691.0</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2712,20 +2713,20 @@
       <c r="L35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O35" s="1">
+        <v>4.535723</v>
+      </c>
+      <c r="P35" s="1">
         <v>50.76974</v>
       </c>
-      <c r="P35" s="1">
-        <v>4.535723</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>330551.0</v>
+      <c r="Q35" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -2744,7 +2745,7 @@
       <c r="E36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>45691.0</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2765,20 +2766,20 @@
       <c r="L36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O36" s="1">
+        <v>4.201599</v>
+      </c>
+      <c r="P36" s="1">
         <v>50.911228</v>
       </c>
-      <c r="P36" s="1">
-        <v>4.201599</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>330551.0</v>
+      <c r="Q36" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -2797,7 +2798,7 @@
       <c r="E37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>45691.0</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2818,20 +2819,20 @@
       <c r="L37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O37" s="1">
+        <v>5.512535593</v>
+      </c>
+      <c r="P37" s="1">
         <v>50.86678816</v>
       </c>
-      <c r="P37" s="1">
-        <v>5.512535593</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>330551.0</v>
+      <c r="Q37" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -2850,7 +2851,7 @@
       <c r="E38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>45691.0</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2871,20 +2872,20 @@
       <c r="L38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="M38" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="1">
+        <v>4.509297598</v>
+      </c>
+      <c r="P38" s="1">
         <v>51.09402054</v>
       </c>
-      <c r="P38" s="1">
-        <v>4.509297598</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>330551.0</v>
+      <c r="Q38" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -2903,7 +2904,7 @@
       <c r="E39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>45691.0</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2924,20 +2925,20 @@
       <c r="L39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O39" s="1">
+        <v>4.624908285</v>
+      </c>
+      <c r="P39" s="1">
         <v>50.66546323</v>
       </c>
-      <c r="P39" s="1">
-        <v>4.624908285</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>330551.0</v>
+      <c r="Q39" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -2956,7 +2957,7 @@
       <c r="E40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>45691.0</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2977,20 +2978,20 @@
       <c r="L40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O40" s="1">
+        <v>3.442525085</v>
+      </c>
+      <c r="P40" s="1">
         <v>50.92283331</v>
       </c>
-      <c r="P40" s="1">
-        <v>3.442525085</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>330551.0</v>
+      <c r="Q40" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3009,7 +3010,7 @@
       <c r="E41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>45691.0</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -3030,20 +3031,20 @@
       <c r="L41" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O41" s="1">
+        <v>4.395895272</v>
+      </c>
+      <c r="P41" s="1">
         <v>50.71586228</v>
       </c>
-      <c r="P41" s="1">
-        <v>4.395895272</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>330551.0</v>
+      <c r="Q41" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3062,7 +3063,7 @@
       <c r="E42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>45691.0</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3083,20 +3084,20 @@
       <c r="L42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O42" s="1">
+        <v>4.936475314</v>
+      </c>
+      <c r="P42" s="1">
         <v>50.80467974</v>
       </c>
-      <c r="P42" s="1">
-        <v>4.936475314</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>330551.0</v>
+      <c r="Q42" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3115,7 +3116,7 @@
       <c r="E43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>45691.0</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3136,20 +3137,20 @@
       <c r="L43" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O43" s="1">
+        <v>5.576246259</v>
+      </c>
+      <c r="P43" s="1">
         <v>50.64191809</v>
       </c>
-      <c r="P43" s="1">
-        <v>5.576246259</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>330551.0</v>
+      <c r="Q43" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3168,7 +3169,7 @@
       <c r="E44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>45691.0</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3189,20 +3190,20 @@
       <c r="L44" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O44" s="1">
+        <v>4.408659608</v>
+      </c>
+      <c r="P44" s="1">
         <v>50.83803219</v>
       </c>
-      <c r="P44" s="1">
-        <v>4.408659608</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>330551.0</v>
+      <c r="Q44" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3221,7 +3222,7 @@
       <c r="E45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>45691.0</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3242,20 +3243,20 @@
       <c r="L45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="N45" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O45" s="1">
+        <v>4.782948298</v>
+      </c>
+      <c r="P45" s="1">
         <v>50.85429042</v>
       </c>
-      <c r="P45" s="1">
-        <v>4.782948298</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>330551.0</v>
+      <c r="Q45" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -3274,7 +3275,7 @@
       <c r="E46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>45691.0</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -3295,20 +3296,20 @@
       <c r="L46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="M46" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="N46" s="7" t="s">
         <v>31</v>
       </c>
       <c r="O46" s="1">
+        <v>4.179658566</v>
+      </c>
+      <c r="P46" s="1">
         <v>51.17463454</v>
       </c>
-      <c r="P46" s="1">
-        <v>4.179658566</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>330551.0</v>
+      <c r="Q46" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -3327,7 +3328,7 @@
       <c r="E47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>45691.0</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3348,20 +3349,20 @@
       <c r="L47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O47" s="1">
+        <v>3.817827085</v>
+      </c>
+      <c r="P47" s="1">
         <v>50.87450354</v>
       </c>
-      <c r="P47" s="1">
-        <v>3.817827085</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>330551.0</v>
+      <c r="Q47" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -3380,7 +3381,7 @@
       <c r="E48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>45691.0</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -3401,20 +3402,20 @@
       <c r="L48" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O48" s="1">
+        <v>4.955431656</v>
+      </c>
+      <c r="P48" s="1">
         <v>51.32131557</v>
       </c>
-      <c r="P48" s="1">
-        <v>4.955431656</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>330551.0</v>
+      <c r="Q48" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -3433,7 +3434,7 @@
       <c r="E49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>45691.0</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -3454,20 +3455,20 @@
       <c r="L49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O49" s="1">
+        <v>5.150345098</v>
+      </c>
+      <c r="P49" s="1">
         <v>51.10132685</v>
       </c>
-      <c r="P49" s="1">
-        <v>5.150345098</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>330551.0</v>
+      <c r="Q49" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -3486,7 +3487,7 @@
       <c r="E50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>45691.0</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -3507,20 +3508,20 @@
       <c r="L50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O50" s="1">
+        <v>3.709926072</v>
+      </c>
+      <c r="P50" s="1">
         <v>51.06036069</v>
       </c>
-      <c r="P50" s="1">
-        <v>3.709926072</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>330551.0</v>
+      <c r="Q50" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -3539,7 +3540,7 @@
       <c r="E51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>45691.0</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -3560,20 +3561,20 @@
       <c r="L51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O51" s="1">
+        <v>5.596174478</v>
+      </c>
+      <c r="P51" s="1">
         <v>51.1393691</v>
       </c>
-      <c r="P51" s="1">
-        <v>5.596174478</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>330551.0</v>
+      <c r="Q51" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -3592,7 +3593,7 @@
       <c r="E52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>45691.0</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -3613,20 +3614,20 @@
       <c r="L52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O52" s="1">
+        <v>5.492284327</v>
+      </c>
+      <c r="P52" s="1">
         <v>50.96619646</v>
       </c>
-      <c r="P52" s="1">
-        <v>5.492284327</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>330551.0</v>
+      <c r="Q52" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -3645,7 +3646,7 @@
       <c r="E53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <v>45691.0</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -3666,20 +3667,20 @@
       <c r="L53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M53" s="6" t="s">
+      <c r="M53" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O53" s="1">
+        <v>4.984894398</v>
+      </c>
+      <c r="P53" s="1">
         <v>51.16138131</v>
       </c>
-      <c r="P53" s="1">
-        <v>4.984894398</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>330551.0</v>
+      <c r="Q53" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -3698,7 +3699,7 @@
       <c r="E54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>45691.0</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -3719,20 +3720,20 @@
       <c r="L54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M54" s="6" t="s">
+      <c r="M54" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O54" s="1">
+        <v>2.904008727</v>
+      </c>
+      <c r="P54" s="1">
         <v>51.22531935</v>
       </c>
-      <c r="P54" s="1">
-        <v>2.904008727</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>330551.0</v>
+      <c r="Q54" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -3751,7 +3752,7 @@
       <c r="E55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>45691.0</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -3772,20 +3773,20 @@
       <c r="L55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M55" s="6" t="s">
+      <c r="M55" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O55" s="1">
+        <v>4.312113107</v>
+      </c>
+      <c r="P55" s="1">
         <v>50.85780722</v>
       </c>
-      <c r="P55" s="1">
-        <v>4.312113107</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>330551.0</v>
+      <c r="Q55" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -3804,7 +3805,7 @@
       <c r="E56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>45691.0</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -3825,20 +3826,20 @@
       <c r="L56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M56" s="6" t="s">
+      <c r="M56" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O56" s="1">
+        <v>4.239441998</v>
+      </c>
+      <c r="P56" s="1">
         <v>50.73623777</v>
       </c>
-      <c r="P56" s="1">
-        <v>4.239441998</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>330551.0</v>
+      <c r="Q56" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -3857,7 +3858,7 @@
       <c r="E57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="4">
         <v>45691.0</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -3878,20 +3879,20 @@
       <c r="L57" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M57" s="6" t="s">
+      <c r="M57" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O57" s="1">
+        <v>5.596174478</v>
+      </c>
+      <c r="P57" s="1">
         <v>51.1393691</v>
       </c>
-      <c r="P57" s="1">
-        <v>5.596174478</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>330551.0</v>
+      <c r="Q57" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -3910,7 +3911,7 @@
       <c r="E58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>45691.0</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3931,20 +3932,20 @@
       <c r="L58" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M58" s="6" t="s">
+      <c r="M58" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O58" s="1">
+        <v>3.730263856</v>
+      </c>
+      <c r="P58" s="1">
         <v>50.87642574</v>
       </c>
-      <c r="P58" s="1">
-        <v>3.730263856</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>330551.0</v>
+      <c r="Q58" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -3963,7 +3964,7 @@
       <c r="E59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="4">
         <v>45691.0</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3984,20 +3985,20 @@
       <c r="L59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O59" s="1">
+        <v>5.316401041</v>
+      </c>
+      <c r="P59" s="1">
         <v>51.22912932</v>
       </c>
-      <c r="P59" s="1">
-        <v>5.316401041</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>330551.0</v>
+      <c r="Q59" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4016,7 +4017,7 @@
       <c r="E60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>45691.0</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -4037,20 +4038,20 @@
       <c r="L60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M60" s="6" t="s">
+      <c r="M60" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O60" s="1">
+        <v>4.325299756</v>
+      </c>
+      <c r="P60" s="1">
         <v>51.21563904</v>
       </c>
-      <c r="P60" s="1">
-        <v>4.325299756</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>330551.0</v>
+      <c r="Q60" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -4069,7 +4070,7 @@
       <c r="E61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="4">
         <v>45691.0</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -4090,20 +4091,20 @@
       <c r="L61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M61" s="6" t="s">
+      <c r="M61" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O61" s="1">
+        <v>4.326184161</v>
+      </c>
+      <c r="P61" s="1">
         <v>50.8163013</v>
       </c>
-      <c r="P61" s="1">
-        <v>4.326184161</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>330551.0</v>
+      <c r="Q61" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -4122,7 +4123,7 @@
       <c r="E62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>45691.0</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -4143,20 +4144,20 @@
       <c r="L62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M62" s="6" t="s">
+      <c r="M62" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O62" s="1">
+        <v>4.632514427</v>
+      </c>
+      <c r="P62" s="1">
         <v>51.0035412</v>
       </c>
-      <c r="P62" s="1">
-        <v>4.632514427</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>330551.0</v>
+      <c r="Q62" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -4175,7 +4176,7 @@
       <c r="E63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>45691.0</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -4196,20 +4197,20 @@
       <c r="L63" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M63" s="6" t="s">
+      <c r="M63" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O63" s="1">
+        <v>4.044045654</v>
+      </c>
+      <c r="P63" s="1">
         <v>51.20509961</v>
       </c>
-      <c r="P63" s="1">
-        <v>4.044045654</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>330551.0</v>
+      <c r="Q63" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -4228,7 +4229,7 @@
       <c r="E64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>45691.0</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -4249,20 +4250,20 @@
       <c r="L64" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M64" s="6" t="s">
+      <c r="M64" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O64" s="1">
+        <v>4.478156656</v>
+      </c>
+      <c r="P64" s="1">
         <v>51.38249589</v>
       </c>
-      <c r="P64" s="1">
-        <v>4.478156656</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>330551.0</v>
+      <c r="Q64" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -4281,7 +4282,7 @@
       <c r="E65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="4">
         <v>45691.0</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -4302,20 +4303,20 @@
       <c r="L65" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M65" s="6" t="s">
+      <c r="M65" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O65" s="1">
+        <v>4.514095998</v>
+      </c>
+      <c r="P65" s="1">
         <v>51.22596459</v>
       </c>
-      <c r="P65" s="1">
-        <v>4.514095998</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>330551.0</v>
+      <c r="Q65" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -4334,7 +4335,7 @@
       <c r="E66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="4">
         <v>45691.0</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -4355,20 +4356,20 @@
       <c r="L66" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M66" s="6" t="s">
+      <c r="M66" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O66" s="1">
+        <v>3.207235</v>
+      </c>
+      <c r="P66" s="1">
         <v>50.911638</v>
       </c>
-      <c r="P66" s="1">
-        <v>3.207235</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>330551.0</v>
+      <c r="Q66" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -4387,7 +4388,7 @@
       <c r="E67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="4">
         <v>45691.0</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -4408,20 +4409,20 @@
       <c r="L67" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M67" s="6" t="s">
+      <c r="M67" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O67" s="1">
+        <v>3.12128227</v>
+      </c>
+      <c r="P67" s="1">
         <v>50.95243179</v>
       </c>
-      <c r="P67" s="1">
-        <v>3.12128227</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>330551.0</v>
+      <c r="Q67" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -4440,7 +4441,7 @@
       <c r="E68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="4">
         <v>45691.0</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -4461,20 +4462,20 @@
       <c r="L68" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M68" s="6" t="s">
+      <c r="M68" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O68" s="1">
+        <v>2.987678269</v>
+      </c>
+      <c r="P68" s="1">
         <v>50.87045402</v>
       </c>
-      <c r="P68" s="1">
-        <v>2.987678269</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>330551.0</v>
+      <c r="Q68" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -4493,7 +4494,7 @@
       <c r="E69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="4">
         <v>45691.0</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -4514,20 +4515,20 @@
       <c r="L69" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M69" s="6" t="s">
+      <c r="M69" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O69" s="1">
+        <v>5.077424312</v>
+      </c>
+      <c r="P69" s="1">
         <v>51.13500522</v>
       </c>
-      <c r="P69" s="1">
-        <v>5.077424312</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>330551.0</v>
+      <c r="Q69" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -4546,7 +4547,7 @@
       <c r="E70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="4">
         <v>45691.0</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -4567,20 +4568,20 @@
       <c r="L70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M70" s="6" t="s">
+      <c r="M70" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O70" s="1">
+        <v>4.839034963</v>
+      </c>
+      <c r="P70" s="1">
         <v>50.9887268</v>
       </c>
-      <c r="P70" s="1">
-        <v>4.839034963</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>330551.0</v>
+      <c r="Q70" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -4599,7 +4600,7 @@
       <c r="E71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="4">
         <v>45691.0</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -4620,20 +4621,20 @@
       <c r="L71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M71" s="6" t="s">
+      <c r="M71" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O71" s="1">
+        <v>5.394709356</v>
+      </c>
+      <c r="P71" s="1">
         <v>51.15595943</v>
       </c>
-      <c r="P71" s="1">
-        <v>5.394709356</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>330551.0</v>
+      <c r="Q71" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -4652,7 +4653,7 @@
       <c r="E72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="4">
         <v>45691.0</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -4673,20 +4674,20 @@
       <c r="L72" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M72" s="6" t="s">
+      <c r="M72" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O72" s="1">
+        <v>4.728948756</v>
+      </c>
+      <c r="P72" s="1">
         <v>50.88144379</v>
       </c>
-      <c r="P72" s="1">
-        <v>4.728948756</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>330551.0</v>
+      <c r="Q72" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -4705,7 +4706,7 @@
       <c r="E73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="4">
         <v>45691.0</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -4726,20 +4727,20 @@
       <c r="L73" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M73" s="6" t="s">
+      <c r="M73" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O73" s="1">
+        <v>5.394709356</v>
+      </c>
+      <c r="P73" s="1">
         <v>51.15595943</v>
       </c>
-      <c r="P73" s="1">
-        <v>5.394709356</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>330551.0</v>
+      <c r="Q73" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -4758,7 +4759,7 @@
       <c r="E74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="4">
         <v>45691.0</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -4779,20 +4780,20 @@
       <c r="L74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M74" s="6" t="s">
+      <c r="M74" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O74" s="1">
+        <v>3.527312493</v>
+      </c>
+      <c r="P74" s="1">
         <v>50.98466621</v>
       </c>
-      <c r="P74" s="1">
-        <v>3.527312493</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>330551.0</v>
+      <c r="Q74" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -4811,7 +4812,7 @@
       <c r="E75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="4">
         <v>45691.0</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -4832,20 +4833,20 @@
       <c r="L75" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M75" s="6" t="s">
+      <c r="M75" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O75" s="1">
+        <v>5.345624488</v>
+      </c>
+      <c r="P75" s="1">
         <v>50.93511502</v>
       </c>
-      <c r="P75" s="1">
-        <v>5.345624488</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>330551.0</v>
+      <c r="Q75" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -4864,7 +4865,7 @@
       <c r="E76" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="4">
         <v>45691.0</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -4885,20 +4886,20 @@
       <c r="L76" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M76" s="6" t="s">
+      <c r="M76" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O76" s="1">
+        <v>4.29972677</v>
+      </c>
+      <c r="P76" s="1">
         <v>51.00522189</v>
       </c>
-      <c r="P76" s="1">
-        <v>4.29972677</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>330551.0</v>
+      <c r="Q76" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -4917,7 +4918,7 @@
       <c r="E77" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="4">
         <v>45691.0</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -4938,20 +4939,20 @@
       <c r="L77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M77" s="6" t="s">
+      <c r="M77" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O77" s="1">
+        <v>5.299789968</v>
+      </c>
+      <c r="P77" s="1">
         <v>50.4139618</v>
       </c>
-      <c r="P77" s="1">
-        <v>5.299789968</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>330551.0</v>
+      <c r="Q77" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -4970,7 +4971,7 @@
       <c r="E78" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="4">
         <v>45691.0</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -4991,20 +4992,20 @@
       <c r="L78" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M78" s="6" t="s">
+      <c r="M78" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O78" s="1">
+        <v>3.941342341</v>
+      </c>
+      <c r="P78" s="1">
         <v>50.45862276</v>
       </c>
-      <c r="P78" s="1">
-        <v>3.941342341</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>330551.0</v>
+      <c r="Q78" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -5023,7 +5024,7 @@
       <c r="E79" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="4">
         <v>45691.0</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -5038,26 +5039,26 @@
       <c r="J79" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="5">
         <v>45695.0</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="5">
         <v>45695.0</v>
       </c>
-      <c r="M79" s="6" t="s">
+      <c r="M79" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O79" s="1">
+        <v>5.576246259</v>
+      </c>
+      <c r="P79" s="1">
         <v>50.64191809</v>
       </c>
-      <c r="P79" s="1">
-        <v>5.576246259</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>330551.0</v>
+      <c r="Q79" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -5076,7 +5077,7 @@
       <c r="E80" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="4">
         <v>45691.0</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -5091,26 +5092,26 @@
       <c r="J80" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="5">
         <v>45784.0</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="5">
         <v>45784.0</v>
       </c>
-      <c r="M80" s="6" t="s">
+      <c r="M80" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O80" s="1">
+        <v>4.408659608</v>
+      </c>
+      <c r="P80" s="1">
         <v>50.83803219</v>
       </c>
-      <c r="P80" s="1">
-        <v>4.408659608</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>330551.0</v>
+      <c r="Q80" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -5129,7 +5130,7 @@
       <c r="E81" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="4">
         <v>45691.0</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -5144,26 +5145,26 @@
       <c r="J81" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="5">
         <v>45815.0</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L81" s="5">
         <v>45815.0</v>
       </c>
-      <c r="M81" s="6" t="s">
+      <c r="M81" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O81" s="1">
+        <v>4.369387293</v>
+      </c>
+      <c r="P81" s="1">
         <v>50.68282214</v>
       </c>
-      <c r="P81" s="1">
-        <v>4.369387293</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>330551.0</v>
+      <c r="Q81" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -5182,7 +5183,7 @@
       <c r="E82" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="4">
         <v>45691.0</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -5197,26 +5198,26 @@
       <c r="J82" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="5">
         <v>45815.0</v>
       </c>
-      <c r="L82" s="4">
+      <c r="L82" s="5">
         <v>45815.0</v>
       </c>
-      <c r="M82" s="6" t="s">
+      <c r="M82" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O82" s="1">
+        <v>4.259494175</v>
+      </c>
+      <c r="P82" s="1">
         <v>50.52995943</v>
       </c>
-      <c r="P82" s="1">
-        <v>4.259494175</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>330551.0</v>
+      <c r="Q82" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -5235,7 +5236,7 @@
       <c r="E83" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="4">
         <v>45691.0</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -5250,26 +5251,26 @@
       <c r="J83" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="5">
         <v>45998.0</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L83" s="5">
         <v>45998.0</v>
       </c>
-      <c r="M83" s="6" t="s">
+      <c r="M83" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O83" s="1">
+        <v>5.394709356</v>
+      </c>
+      <c r="P83" s="1">
         <v>51.15595943</v>
       </c>
-      <c r="P83" s="1">
-        <v>5.394709356</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>330551.0</v>
+      <c r="Q83" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -5288,7 +5289,7 @@
       <c r="E84" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="4">
         <v>45691.0</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -5309,20 +5310,20 @@
       <c r="L84" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M84" s="6" t="s">
+      <c r="M84" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O84" s="1">
+        <v>4.408659608</v>
+      </c>
+      <c r="P84" s="1">
         <v>50.83803219</v>
       </c>
-      <c r="P84" s="1">
-        <v>4.408659608</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>330551.0</v>
+      <c r="Q84" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -5341,7 +5342,7 @@
       <c r="E85" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="4">
         <v>45691.0</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -5362,20 +5363,20 @@
       <c r="L85" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M85" s="6" t="s">
+      <c r="M85" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O85" s="1">
+        <v>4.695744095</v>
+      </c>
+      <c r="P85" s="1">
         <v>50.56013417</v>
       </c>
-      <c r="P85" s="1">
-        <v>4.695744095</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>330551.0</v>
+      <c r="Q85" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -5394,7 +5395,7 @@
       <c r="E86" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="4">
         <v>45691.0</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -5409,26 +5410,26 @@
       <c r="J86" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="5">
         <v>45696.0</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="5">
         <v>45696.0</v>
       </c>
-      <c r="M86" s="6" t="s">
+      <c r="M86" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O86" s="1">
+        <v>4.408659608</v>
+      </c>
+      <c r="P86" s="1">
         <v>50.83803219</v>
       </c>
-      <c r="P86" s="1">
-        <v>4.408659608</v>
-      </c>
-      <c r="Q86" s="2">
-        <v>330551.0</v>
+      <c r="Q86" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -5447,7 +5448,7 @@
       <c r="E87" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="4">
         <v>45691.0</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -5468,20 +5469,20 @@
       <c r="L87" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M87" s="6" t="s">
+      <c r="M87" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O87" s="1">
+        <v>4.408659608</v>
+      </c>
+      <c r="P87" s="1">
         <v>50.83803219</v>
       </c>
-      <c r="P87" s="1">
-        <v>4.408659608</v>
-      </c>
-      <c r="Q87" s="2">
-        <v>330551.0</v>
+      <c r="Q87" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -5500,7 +5501,7 @@
       <c r="E88" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="4">
         <v>45691.0</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -5521,20 +5522,20 @@
       <c r="L88" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M88" s="6" t="s">
+      <c r="M88" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O88" s="1">
+        <v>4.312113107</v>
+      </c>
+      <c r="P88" s="1">
         <v>50.85780722</v>
       </c>
-      <c r="P88" s="1">
-        <v>4.312113107</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>330551.0</v>
+      <c r="Q88" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -5553,7 +5554,7 @@
       <c r="E89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="4">
         <v>45691.0</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -5574,20 +5575,20 @@
       <c r="L89" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M89" s="6" t="s">
+      <c r="M89" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O89" s="1">
+        <v>4.695744095</v>
+      </c>
+      <c r="P89" s="1">
         <v>50.56013417</v>
       </c>
-      <c r="P89" s="1">
-        <v>4.695744095</v>
-      </c>
-      <c r="Q89" s="2">
-        <v>330551.0</v>
+      <c r="Q89" s="3">
+        <v>30551.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -5606,7 +5607,7 @@
       <c r="E90" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="4">
         <v>45691.0</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -5627,20 +5628,20 @@
       <c r="L90" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="M90" s="6" t="s">
+      <c r="M90" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O90" s="1">
+        <v>4.728948756</v>
+      </c>
+      <c r="P90" s="1">
         <v>50.88144379</v>
       </c>
-      <c r="P90" s="1">
-        <v>4.728948756</v>
-      </c>
-      <c r="Q90" s="2">
-        <v>330551.0</v>
+      <c r="Q90" s="3">
+        <v>30551.0</v>
       </c>
     </row>
   </sheetData>
